--- a/xls/template.xlsx
+++ b/xls/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEE493-C924-4720-AA74-6077A71F5BD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C3818-D9E1-4DFE-80E3-FEA8A3BD9107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,26 @@
   </si>
   <si>
     <t>WorS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,13 +539,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -542,6 +565,31 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
